--- a/Excel/testData.xlsx
+++ b/Excel/testData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BeeHoney Python\College_Project_POM\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BeeHoney Python\College_Project_POM(Amazon)\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B576682D-54E1-4938-815A-E9C6E34952BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB9A50-95AE-4BA2-9576-3DE30473A0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16296" xr2:uid="{B44C3D4D-B3B0-4897-AC93-7C1B772B15CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16296" activeTab="1" xr2:uid="{B44C3D4D-B3B0-4897-AC93-7C1B772B15CC}"/>
   </bookViews>
   <sheets>
     <sheet name="searchData" sheetId="1" r:id="rId1"/>
+    <sheet name="cancelProductData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>searchItem</t>
   </si>
@@ -37,6 +38,24 @@
   </si>
   <si>
     <t>Sony SRS-XB100</t>
+  </si>
+  <si>
+    <t>cancelProductName</t>
+  </si>
+  <si>
+    <t>Sony SRS</t>
+  </si>
+  <si>
+    <t>validateCanceledProductName</t>
+  </si>
+  <si>
+    <t>validateCartItem</t>
+  </si>
+  <si>
+    <t>Sony SRS-XB100 Wireless Bluetooth Portable Lightweight Super-Compact Travel Speaker, Extra-Durable IP67 Waterproof &amp; Dustproof, 16 Hrs Batt, Versatile Strap, Extra Bass &amp; Hands-Free Calling-Black</t>
+  </si>
+  <si>
+    <t>Sony SRS-XB100 Wireless Bluetooth...</t>
   </si>
 </sst>
 </file>
@@ -52,7 +71,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,6 +81,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -78,17 +103,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,33 +426,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BEC2DC-F8E3-4325-9801-7690604B5A4B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE3CD7C-5212-41A3-8BD7-BF7A67CA1958}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/testData.xlsx
+++ b/Excel/testData.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BeeHoney Python\College_Project_POM(Amazon)\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB9A50-95AE-4BA2-9576-3DE30473A0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F077D8E-5382-4FE1-9AEA-E59E26835A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16296" activeTab="1" xr2:uid="{B44C3D4D-B3B0-4897-AC93-7C1B772B15CC}"/>
+    <workbookView xWindow="5724" yWindow="660" windowWidth="20160" windowHeight="11760" activeTab="1" xr2:uid="{B44C3D4D-B3B0-4897-AC93-7C1B772B15CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="searchData" sheetId="1" r:id="rId1"/>
-    <sheet name="cancelProductData" sheetId="2" r:id="rId2"/>
+    <sheet name="searchProduct" sheetId="4" r:id="rId1"/>
+    <sheet name="searchData" sheetId="1" r:id="rId2"/>
+    <sheet name="deeplinkProduct" sheetId="3" r:id="rId3"/>
+    <sheet name="cancelProductData" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>searchItem</t>
   </si>
@@ -56,6 +58,12 @@
   </si>
   <si>
     <t>Sony SRS-XB100 Wireless Bluetooth...</t>
+  </si>
+  <si>
+    <t>Macbook M3 Pro</t>
+  </si>
+  <si>
+    <t>searchProduct</t>
   </si>
 </sst>
 </file>
@@ -103,15 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,37 +431,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BEC2DC-F8E3-4325-9801-7690604B5A4B}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E3D75-A616-42B0-AD83-6F30261E264E}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BEC2DC-F8E3-4325-9801-7690604B5A4B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -467,11 +495,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F3F952-A093-4EAC-AD0E-3DF56BA581B5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE3CD7C-5212-41A3-8BD7-BF7A67CA1958}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/Excel/testData.xlsx
+++ b/Excel/testData.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BeeHoney Python\College_Project_POM(Amazon)\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F077D8E-5382-4FE1-9AEA-E59E26835A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E94F3F-9BE3-4771-AB90-634AE9810006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5724" yWindow="660" windowWidth="20160" windowHeight="11760" activeTab="1" xr2:uid="{B44C3D4D-B3B0-4897-AC93-7C1B772B15CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="searchProduct" sheetId="4" r:id="rId1"/>
-    <sheet name="searchData" sheetId="1" r:id="rId2"/>
-    <sheet name="deeplinkProduct" sheetId="3" r:id="rId3"/>
-    <sheet name="cancelProductData" sheetId="2" r:id="rId4"/>
+    <sheet name="placeOrderData" sheetId="1" r:id="rId1"/>
+    <sheet name="deeplinkProduct" sheetId="3" r:id="rId2"/>
+    <sheet name="cancelProductData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>searchItem</t>
   </si>
@@ -63,7 +62,19 @@
     <t>Macbook M3 Pro</t>
   </si>
   <si>
-    <t>searchProduct</t>
+    <t>sharePlatform</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>personNameToShare</t>
+  </si>
+  <si>
+    <t>Deepesh</t>
+  </si>
+  <si>
+    <t>Apple 2023 MacBook Pro (16-inch, Apple M3 Pro chip with 12‑core CPU and 18‑core GPU, 18GB Unified Memory, 512GB) - Space Black</t>
   </si>
 </sst>
 </file>
@@ -431,34 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E3D75-A616-42B0-AD83-6F30261E264E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BEC2DC-F8E3-4325-9801-7690604B5A4B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,35 +483,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F3F952-A093-4EAC-AD0E-3DF56BA581B5}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE3CD7C-5212-41A3-8BD7-BF7A67CA1958}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/Excel/testData.xlsx
+++ b/Excel/testData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BeeHoney Python\College_Project_POM(Amazon)\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E94F3F-9BE3-4771-AB90-634AE9810006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8082427-33D8-4B03-AC68-3D9AD4385416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="660" windowWidth="20160" windowHeight="11760" activeTab="1" xr2:uid="{B44C3D4D-B3B0-4897-AC93-7C1B772B15CC}"/>
+    <workbookView xWindow="5724" yWindow="660" windowWidth="20160" windowHeight="11760" activeTab="3" xr2:uid="{B44C3D4D-B3B0-4897-AC93-7C1B772B15CC}"/>
   </bookViews>
   <sheets>
     <sheet name="placeOrderData" sheetId="1" r:id="rId1"/>
     <sheet name="deeplinkProduct" sheetId="3" r:id="rId2"/>
     <sheet name="cancelProductData" sheetId="2" r:id="rId3"/>
+    <sheet name="globalSearchItem" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>searchItem</t>
   </si>
@@ -75,6 +76,12 @@
   </si>
   <si>
     <t>Apple 2023 MacBook Pro (16-inch, Apple M3 Pro chip with 12‑core CPU and 18‑core GPU, 18GB Unified Memory, 512GB) - Space Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi Pad </t>
+  </si>
+  <si>
+    <t>globalsearchProduct</t>
   </si>
 </sst>
 </file>
@@ -122,13 +129,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F3F952-A093-4EAC-AD0E-3DF56BA581B5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B10:B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,4 +576,33 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D7AEAC-AF08-454E-8A37-21134EDC9D26}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="23.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>